--- a/Ergebnisse/Literature_clustered_with_string_Test.xlsx
+++ b/Ergebnisse/Literature_clustered_with_string_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1252">
   <si>
     <t>Document Title</t>
   </si>
@@ -1832,9 +1832,6 @@
   </si>
   <si>
     <t>Suchstring</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>ab</t>
@@ -20011,9 +20008,6 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>604</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20038,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -20046,7 +20040,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -20054,7 +20048,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -20062,7 +20056,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -20070,7 +20064,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -20078,7 +20072,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -20086,7 +20080,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -20094,7 +20088,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -20102,7 +20096,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -20110,7 +20104,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -20118,7 +20112,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -20126,7 +20120,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -20134,7 +20128,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -20150,7 +20144,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -20158,7 +20152,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -20166,7 +20160,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -20174,7 +20168,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -20190,7 +20184,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -20198,7 +20192,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -20206,7 +20200,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -20214,7 +20208,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -20238,7 +20232,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -20246,7 +20240,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -20254,7 +20248,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -20262,7 +20256,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -20270,7 +20264,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -20286,7 +20280,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -20294,7 +20288,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -20302,7 +20296,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -20310,7 +20304,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -20318,7 +20312,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -20326,7 +20320,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -20334,7 +20328,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -20342,7 +20336,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -20358,7 +20352,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -20366,7 +20360,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -20374,7 +20368,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -20382,7 +20376,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -20390,7 +20384,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -20398,7 +20392,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -20406,7 +20400,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -20414,7 +20408,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -20422,7 +20416,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -20430,7 +20424,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -20438,7 +20432,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -20454,7 +20448,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -20462,7 +20456,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -20470,7 +20464,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -20478,7 +20472,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -20486,7 +20480,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -20494,7 +20488,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -20502,7 +20496,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -20510,7 +20504,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -20518,7 +20512,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -20534,7 +20528,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -20542,7 +20536,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -20550,7 +20544,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -20558,7 +20552,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -20566,7 +20560,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -20574,7 +20568,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -20582,7 +20576,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -20590,7 +20584,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -20598,7 +20592,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -20622,7 +20616,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -20630,7 +20624,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -20638,7 +20632,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -20646,7 +20640,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -20654,7 +20648,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -20662,7 +20656,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -20678,7 +20672,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -20702,7 +20696,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -20710,7 +20704,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -20718,7 +20712,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -20726,7 +20720,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -20742,7 +20736,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -20758,7 +20752,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -20766,7 +20760,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -20774,7 +20768,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -20782,7 +20776,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -20790,7 +20784,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -20798,7 +20792,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -20814,7 +20808,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -20822,7 +20816,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -20838,7 +20832,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -20846,7 +20840,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -20854,7 +20848,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -20862,7 +20856,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -20870,7 +20864,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -20878,7 +20872,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -20886,7 +20880,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -20894,7 +20888,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -20902,7 +20896,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -20910,7 +20904,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -20926,7 +20920,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -20934,7 +20928,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -20942,7 +20936,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -20950,7 +20944,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -20958,7 +20952,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -20966,7 +20960,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -20974,7 +20968,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -20982,7 +20976,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -20990,7 +20984,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -20998,7 +20992,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -21014,7 +21008,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -21030,7 +21024,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -21038,7 +21032,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -21046,7 +21040,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -21054,7 +21048,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -21062,7 +21056,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -21070,7 +21064,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -21078,7 +21072,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -21086,7 +21080,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -21094,7 +21088,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -21102,7 +21096,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -21110,7 +21104,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -21118,7 +21112,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -21126,7 +21120,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -21142,7 +21136,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -21150,7 +21144,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -21158,7 +21152,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -21166,7 +21160,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -21174,7 +21168,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -21182,7 +21176,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -21190,7 +21184,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -21198,7 +21192,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -21206,7 +21200,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -21214,7 +21208,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -21222,7 +21216,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -21230,7 +21224,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -21238,7 +21232,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -21246,7 +21240,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -21254,7 +21248,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -21262,7 +21256,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -21270,7 +21264,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -21278,7 +21272,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -21286,7 +21280,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -21294,7 +21288,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -21302,7 +21296,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -21310,7 +21304,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -21318,7 +21312,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -21326,7 +21320,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -21334,7 +21328,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -21342,7 +21336,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -21350,7 +21344,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -21358,7 +21352,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -21366,7 +21360,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -21374,7 +21368,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -21382,7 +21376,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -21390,7 +21384,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -21398,7 +21392,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -21406,7 +21400,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -21414,7 +21408,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -21422,7 +21416,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -21430,7 +21424,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -21438,7 +21432,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -21446,7 +21440,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -21454,7 +21448,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -21462,7 +21456,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -21470,7 +21464,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -21478,7 +21472,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -21486,7 +21480,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -21494,7 +21488,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -21502,7 +21496,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -21510,7 +21504,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -21518,7 +21512,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -21526,7 +21520,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -21534,7 +21528,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -21550,7 +21544,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -21558,7 +21552,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -21574,7 +21568,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -21582,7 +21576,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -21590,7 +21584,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -21598,7 +21592,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -21606,7 +21600,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -21614,7 +21608,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -21622,7 +21616,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -21630,7 +21624,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -21638,7 +21632,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -21646,7 +21640,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -21654,7 +21648,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -21662,7 +21656,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -21670,7 +21664,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -21678,7 +21672,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -21686,7 +21680,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -21694,7 +21688,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -21702,7 +21696,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -21710,7 +21704,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -21726,7 +21720,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -21734,7 +21728,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -21742,7 +21736,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -21750,7 +21744,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -21758,7 +21752,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -21766,7 +21760,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -21774,7 +21768,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -21782,7 +21776,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -21790,7 +21784,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -21798,7 +21792,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -21814,7 +21808,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -21822,7 +21816,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -21830,7 +21824,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -21838,7 +21832,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -21846,7 +21840,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -21854,7 +21848,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -21862,7 +21856,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -21870,7 +21864,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -21878,7 +21872,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -21886,7 +21880,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -21894,7 +21888,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -21902,7 +21896,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -21910,7 +21904,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -21918,7 +21912,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -21926,7 +21920,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -21934,7 +21928,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -21942,7 +21936,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -21950,7 +21944,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -21958,7 +21952,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -21966,7 +21960,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -21974,7 +21968,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -21982,7 +21976,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -21990,7 +21984,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -21998,7 +21992,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -22006,7 +22000,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -22014,7 +22008,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -22022,7 +22016,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -22030,7 +22024,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -22038,7 +22032,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -22046,7 +22040,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -22054,7 +22048,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -22062,7 +22056,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -22070,7 +22064,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -22078,7 +22072,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -22086,7 +22080,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -22094,7 +22088,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -22110,7 +22104,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -22118,7 +22112,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -22126,7 +22120,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -22134,7 +22128,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -22142,7 +22136,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -22150,7 +22144,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -22158,7 +22152,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -22166,7 +22160,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -22174,7 +22168,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -22182,7 +22176,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -22190,7 +22184,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -22198,7 +22192,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -22206,7 +22200,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -22214,7 +22208,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -22222,7 +22216,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -22230,7 +22224,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -22238,7 +22232,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -22246,7 +22240,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -22254,7 +22248,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -22262,7 +22256,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -22270,7 +22264,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -22278,7 +22272,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -22286,7 +22280,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -22294,7 +22288,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -22302,7 +22296,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -22310,7 +22304,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -22318,7 +22312,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -22326,7 +22320,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -22334,7 +22328,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -22342,7 +22336,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -22350,7 +22344,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -22358,7 +22352,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -22366,7 +22360,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -22382,7 +22376,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -22390,7 +22384,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -22398,7 +22392,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -22406,7 +22400,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -22414,7 +22408,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -22430,7 +22424,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -22438,7 +22432,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -22446,7 +22440,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -22462,7 +22456,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -22470,7 +22464,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -22478,7 +22472,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -22486,7 +22480,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -22494,7 +22488,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -22502,7 +22496,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -22510,7 +22504,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -22518,7 +22512,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -22526,7 +22520,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -22534,7 +22528,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -22542,7 +22536,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -22550,7 +22544,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -22558,7 +22552,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -22566,7 +22560,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -22574,7 +22568,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -22582,7 +22576,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -22590,7 +22584,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -22598,7 +22592,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -22614,7 +22608,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -22630,7 +22624,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -22638,7 +22632,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -22646,7 +22640,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -22654,7 +22648,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -22662,7 +22656,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -22670,7 +22664,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -22678,7 +22672,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -22686,7 +22680,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -22694,7 +22688,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -22702,7 +22696,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -22710,7 +22704,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -22718,7 +22712,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -22726,7 +22720,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -22734,7 +22728,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -22742,7 +22736,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -22750,7 +22744,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -22758,7 +22752,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -22766,7 +22760,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -22774,7 +22768,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -22782,7 +22776,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -22790,7 +22784,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -22798,7 +22792,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -22806,7 +22800,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -22814,7 +22808,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -22822,7 +22816,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -22830,7 +22824,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -22838,7 +22832,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -22862,7 +22856,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -22870,7 +22864,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -22878,7 +22872,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -22886,7 +22880,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -22894,7 +22888,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -22902,7 +22896,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -22910,7 +22904,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -22918,7 +22912,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -22926,7 +22920,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -22934,7 +22928,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -22942,7 +22936,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -22950,7 +22944,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -22958,7 +22952,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -22966,7 +22960,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -22974,7 +22968,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -22990,7 +22984,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -23006,7 +23000,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -23014,7 +23008,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -23022,7 +23016,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -23030,7 +23024,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -23038,7 +23032,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -23046,7 +23040,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -23054,7 +23048,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -23062,7 +23056,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -23078,7 +23072,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -23086,7 +23080,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -23094,7 +23088,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -23102,7 +23096,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -23110,7 +23104,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -23118,7 +23112,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -23126,7 +23120,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -23134,7 +23128,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -23142,7 +23136,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -23150,7 +23144,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -23158,7 +23152,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -23166,7 +23160,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -23174,7 +23168,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -23182,7 +23176,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -23190,7 +23184,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -23198,7 +23192,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -23206,7 +23200,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -23214,7 +23208,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -23222,7 +23216,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -23230,7 +23224,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -23238,7 +23232,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -23246,7 +23240,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -23254,7 +23248,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -23262,7 +23256,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -23270,7 +23264,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -23278,7 +23272,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -23286,7 +23280,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -23294,7 +23288,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -23318,7 +23312,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -23326,7 +23320,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -23334,7 +23328,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -23342,7 +23336,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -23350,7 +23344,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -23358,7 +23352,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -23366,7 +23360,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -23374,7 +23368,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -23382,7 +23376,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -23390,7 +23384,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -23398,7 +23392,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -23406,7 +23400,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -23414,7 +23408,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -23430,7 +23424,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -23438,7 +23432,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -23446,7 +23440,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -23454,7 +23448,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -23462,7 +23456,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -23470,7 +23464,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -23478,7 +23472,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -23486,7 +23480,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -23494,7 +23488,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -23502,7 +23496,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -23510,7 +23504,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -23518,7 +23512,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -23526,7 +23520,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -23534,7 +23528,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -23542,7 +23536,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -23550,7 +23544,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -23558,7 +23552,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -23566,7 +23560,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -23574,7 +23568,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -23582,7 +23576,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -23590,7 +23584,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -23598,7 +23592,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -23606,7 +23600,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -23614,7 +23608,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -23622,7 +23616,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -23630,7 +23624,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -23646,7 +23640,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -23654,7 +23648,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -23662,7 +23656,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -23670,7 +23664,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -23678,7 +23672,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -23686,7 +23680,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -23694,7 +23688,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -23702,7 +23696,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -23710,7 +23704,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -23718,7 +23712,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -23726,7 +23720,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -23734,7 +23728,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -23742,7 +23736,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -23750,7 +23744,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -23758,7 +23752,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -23766,7 +23760,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -23774,7 +23768,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -23782,7 +23776,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -23790,7 +23784,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -23798,7 +23792,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -23806,7 +23800,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -23814,7 +23808,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -23822,7 +23816,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -23830,7 +23824,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -23838,7 +23832,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -23846,7 +23840,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -23854,7 +23848,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -23862,7 +23856,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -23870,7 +23864,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -23878,7 +23872,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -23886,7 +23880,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -23894,7 +23888,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -23902,7 +23896,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -23910,7 +23904,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -23918,7 +23912,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -23926,7 +23920,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -23934,7 +23928,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -23942,7 +23936,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -23950,7 +23944,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -23958,7 +23952,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -23966,7 +23960,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -23974,7 +23968,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -23982,7 +23976,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -23990,7 +23984,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -23998,7 +23992,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -24006,7 +24000,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -24014,7 +24008,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -24022,7 +24016,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -24030,7 +24024,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -24038,7 +24032,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -24046,7 +24040,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -24054,7 +24048,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -24062,7 +24056,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -24070,7 +24064,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -24078,7 +24072,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -24086,7 +24080,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -24094,7 +24088,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -24102,7 +24096,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -24110,7 +24104,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -24118,7 +24112,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -24126,7 +24120,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -24134,7 +24128,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -24142,7 +24136,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -24150,7 +24144,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -24158,7 +24152,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -24166,7 +24160,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -24174,7 +24168,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -24182,7 +24176,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -24190,7 +24184,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -24198,7 +24192,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -24206,7 +24200,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -24214,7 +24208,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -24222,7 +24216,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -24230,7 +24224,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -24246,7 +24240,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -24254,7 +24248,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -24262,7 +24256,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -24270,7 +24264,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -24278,7 +24272,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -24286,7 +24280,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -24302,7 +24296,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -24310,7 +24304,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -24318,7 +24312,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -24326,7 +24320,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -24334,7 +24328,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -24342,7 +24336,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -24350,7 +24344,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -24358,7 +24352,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -24366,7 +24360,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -24374,7 +24368,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -24382,7 +24376,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -24390,7 +24384,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -24398,7 +24392,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -24406,7 +24400,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -24414,7 +24408,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -24422,7 +24416,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -24430,7 +24424,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -24438,7 +24432,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -24446,7 +24440,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -24454,7 +24448,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -24462,7 +24456,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -24470,7 +24464,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -24478,7 +24472,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -24486,7 +24480,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -24494,7 +24488,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -24502,7 +24496,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -24510,7 +24504,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -24518,7 +24512,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -24526,7 +24520,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -24534,7 +24528,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -24542,7 +24536,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -24550,7 +24544,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -24566,7 +24560,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -24574,7 +24568,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -24582,7 +24576,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -24590,7 +24584,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -24598,7 +24592,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -24606,7 +24600,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -24614,7 +24608,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -24622,7 +24616,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -24630,7 +24624,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -24646,7 +24640,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -24654,7 +24648,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -24662,7 +24656,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -24670,7 +24664,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -24678,7 +24672,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -24686,7 +24680,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -24702,7 +24696,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -24710,7 +24704,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -24718,7 +24712,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -24726,7 +24720,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -24734,7 +24728,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -24742,7 +24736,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -24750,7 +24744,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -24766,7 +24760,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -24774,7 +24768,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -24782,7 +24776,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
@@ -24803,16 +24797,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24832,7 +24826,7 @@
         <v>0.49</v>
       </c>
       <c r="F2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -24852,7 +24846,7 @@
         <v>0.59</v>
       </c>
       <c r="F3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -24872,7 +24866,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -24892,7 +24886,7 @@
         <v>0.51</v>
       </c>
       <c r="F5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -24912,7 +24906,7 @@
         <v>0.66</v>
       </c>
       <c r="F6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24932,7 +24926,7 @@
         <v>0.45</v>
       </c>
       <c r="F7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -24952,7 +24946,7 @@
         <v>0.57</v>
       </c>
       <c r="F8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -24972,7 +24966,7 @@
         <v>0.68</v>
       </c>
       <c r="F9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -24992,7 +24986,7 @@
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -25012,7 +25006,7 @@
         <v>0.57</v>
       </c>
       <c r="F11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -25030,16 +25024,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -25047,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C2">
         <v>0.008439380152625162</v>
@@ -25064,7 +25058,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C3">
         <v>0.0158519818916242</v>
@@ -25081,7 +25075,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C4">
         <v>0.01531560116999119</v>
@@ -25098,7 +25092,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C5">
         <v>0.01419837678536609</v>
@@ -25115,7 +25109,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C6">
         <v>0.01466323140030171</v>
@@ -25132,7 +25126,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C7">
         <v>0.01417890243399814</v>
@@ -25149,7 +25143,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C8">
         <v>0.01380526962489578</v>
@@ -25166,7 +25160,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C9">
         <v>0.01313840527611375</v>
@@ -25183,7 +25177,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C10">
         <v>0.01212050159529329</v>
@@ -25200,7 +25194,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C11">
         <v>0.01255469459529467</v>
@@ -25217,7 +25211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C12">
         <v>0.01200954660561654</v>
@@ -25234,7 +25228,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C13">
         <v>0.01154128370055263</v>
@@ -25251,7 +25245,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C14">
         <v>0.01163156497024263</v>
@@ -25268,7 +25262,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C15">
         <v>0.01132057059916374</v>
@@ -25285,7 +25279,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C16">
         <v>0.01135567411992404</v>
@@ -25302,7 +25296,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C17">
         <v>0.01081544238871004</v>
@@ -25319,7 +25313,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C18">
         <v>0.01043379396888513</v>
@@ -25336,7 +25330,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C19">
         <v>0.0102913727499789</v>
@@ -25353,7 +25347,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C20">
         <v>0.01013565492913223</v>
@@ -25370,7 +25364,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C21">
         <v>0.009950654905239352</v>
@@ -25387,7 +25381,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C22">
         <v>0.009667704264065567</v>
@@ -25404,7 +25398,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C23">
         <v>0.009651976506642261</v>
@@ -25421,7 +25415,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C24">
         <v>0.009454817140169035</v>
@@ -25438,7 +25432,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C25">
         <v>0.00921630634956595</v>
@@ -25455,7 +25449,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C26">
         <v>0.009062248488103112</v>
@@ -25472,7 +25466,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C27">
         <v>0.008962957222595729</v>
@@ -25489,7 +25483,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C28">
         <v>0.008821434018432165</v>
@@ -25506,7 +25500,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C29">
         <v>0.008711011209281463</v>
@@ -25523,7 +25517,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C30">
         <v>0.008648850490798375</v>
@@ -25540,7 +25534,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C31">
         <v>0.008537756402516198</v>
@@ -25557,7 +25551,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C32">
         <v>0.008350587231126519</v>
@@ -25574,7 +25568,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C33">
         <v>0.008213831718543278</v>
@@ -25591,7 +25585,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C34">
         <v>0.00808139861368286</v>
@@ -25608,7 +25602,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C35">
         <v>0.008027203293678705</v>
@@ -25625,7 +25619,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C36">
         <v>0.007910715636037039</v>
@@ -25642,7 +25636,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C37">
         <v>0.007828848672610527</v>
@@ -25659,7 +25653,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C38">
         <v>0.007761476992008958</v>
@@ -25676,7 +25670,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C39">
         <v>0.007712729638899687</v>
@@ -25693,7 +25687,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C40">
         <v>0.007630801935968357</v>
@@ -25710,7 +25704,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C41">
         <v>0.0075157038015892</v>
@@ -25727,7 +25721,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C42">
         <v>0.007543524319533332</v>
@@ -25744,7 +25738,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C43">
         <v>0.007415941986345074</v>
@@ -25761,7 +25755,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C44">
         <v>0.00733328296642712</v>
@@ -25778,7 +25772,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C45">
         <v>0.007293784096865634</v>
@@ -25795,7 +25789,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C46">
         <v>0.007264945326887438</v>
@@ -25812,7 +25806,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C47">
         <v>0.007231043179449143</v>
@@ -25829,7 +25823,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C48">
         <v>0.007131658107129238</v>
@@ -25846,7 +25840,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C49">
         <v>0.007057886384311156</v>
@@ -25863,7 +25857,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C50">
         <v>0.007031429917953356</v>
@@ -25880,7 +25874,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C51">
         <v>0.006945921892282819</v>
@@ -25897,7 +25891,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C52">
         <v>0.006836766605657551</v>
@@ -25914,7 +25908,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C53">
         <v>0.006739099522435905</v>
@@ -25931,7 +25925,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C54">
         <v>0.006714690044194514</v>
@@ -25948,7 +25942,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C55">
         <v>0.006682473541012395</v>
@@ -25965,7 +25959,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C56">
         <v>0.006560866250392199</v>
@@ -25982,7 +25976,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C57">
         <v>0.006553021385780335</v>
@@ -25999,7 +25993,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C58">
         <v>0.00652378711353544</v>
@@ -26016,7 +26010,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C59">
         <v>0.00646246941122641</v>
@@ -26033,7 +26027,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C60">
         <v>0.006378592231186359</v>
@@ -26050,7 +26044,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C61">
         <v>0.006403975508616018</v>
@@ -26067,7 +26061,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C62">
         <v>0.006398944329357732</v>
@@ -26084,7 +26078,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C63">
         <v>0.006388609794016282</v>
@@ -26101,7 +26095,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C64">
         <v>0.00628167007256429</v>
@@ -26118,7 +26112,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C65">
         <v>0.006346653997884142</v>
@@ -26135,7 +26129,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C66">
         <v>0.006350226253608804</v>
@@ -26152,7 +26146,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C67">
         <v>0.006362787916330265</v>
@@ -26169,7 +26163,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C68">
         <v>0.006350651035504999</v>
@@ -26186,7 +26180,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C69">
         <v>0.006321141001089495</v>
@@ -26203,7 +26197,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C70">
         <v>0.006304612782070241</v>
@@ -26220,7 +26214,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C71">
         <v>0.006190838111815499</v>
@@ -26237,7 +26231,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C72">
         <v>0.006153838528536969</v>
@@ -26254,7 +26248,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C73">
         <v>0.00611734033416346</v>
@@ -26271,7 +26265,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C74">
         <v>0.006102681379171227</v>
@@ -26288,7 +26282,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C75">
         <v>0.006036667234837359</v>
@@ -26305,7 +26299,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C76">
         <v>0.006002626574617926</v>
@@ -26322,7 +26316,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C77">
         <v>0.005927171063417162</v>
@@ -26339,7 +26333,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C78">
         <v>0.005841953447070019</v>
@@ -26356,7 +26350,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C79">
         <v>0.005804387841058481</v>
@@ -26373,7 +26367,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C80">
         <v>0.005753772171057644</v>
@@ -26390,7 +26384,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C81">
         <v>0.005715517004585615</v>
@@ -26407,7 +26401,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C82">
         <v>0.005696428129837099</v>
@@ -26424,7 +26418,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C83">
         <v>0.005658889148905433</v>
